--- a/data/trans_camb/P43B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P43B_R-Edad-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-37.85796933729596</v>
+        <v>-39.35634732030553</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-54.85877681562871</v>
+        <v>-57.08495348706341</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.04846540709598</v>
+        <v>13.90342193279716</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.01337701130605</v>
+        <v>12.27702761958505</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4355547835716961</v>
+        <v>-0.4741923325046946</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6380269963578721</v>
+        <v>-0.6727846120967421</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2148178738058936</v>
+        <v>0.1880258705538838</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.09900772461245731</v>
+        <v>0.1355239611776879</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.966185525249271</v>
+        <v>-10.69723869352272</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.65769094541403</v>
+        <v>-14.29424609619395</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.67008134162711</v>
+        <v>20.68374142990299</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.85532530023985</v>
+        <v>19.07184316558305</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1364714134752439</v>
+        <v>-0.1317035447679234</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1933457189211999</v>
+        <v>-0.1982383410933935</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3486790235253946</v>
+        <v>0.3633433855796925</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3314427122810228</v>
+        <v>0.328996102105973</v>
       </c>
     </row>
     <row r="16">
@@ -748,7 +748,7 @@
         <v>4.470525011300063</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-4.827348824741673</v>
+        <v>-4.827348824741684</v>
       </c>
     </row>
     <row r="17">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.06163838102965</v>
+        <v>-4.664711140938504</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.33664924267939</v>
+        <v>-13.56359074116889</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.0384289221212</v>
+        <v>13.33361451805157</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.646966284343267</v>
+        <v>4.954439001514667</v>
       </c>
     </row>
     <row r="19">
@@ -790,7 +790,7 @@
         <v>0.06395574344805183</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.06906049785853896</v>
+        <v>-0.06906049785853913</v>
       </c>
     </row>
     <row r="20">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05424459085529171</v>
+        <v>-0.06184764951430935</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1822092986193575</v>
+        <v>-0.1905453536210732</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1996902936975841</v>
+        <v>0.2031691536429594</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.05610510428012118</v>
+        <v>0.0721295999952633</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>1.863433118797242</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-11.91176745916205</v>
+        <v>-11.91176745916203</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.222415923121943</v>
+        <v>-3.510881315374354</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-18.18560621831404</v>
+        <v>-17.97816387350424</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.729921590764767</v>
+        <v>7.683922171356475</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-6.688974908885855</v>
+        <v>-5.931689856188173</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>0.02271419059221457</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.1451976749947344</v>
+        <v>-0.1451976749947341</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.03828799671067263</v>
+        <v>-0.04070406874321942</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2144027172739932</v>
+        <v>-0.2130562789650594</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1003630864713576</v>
+        <v>0.09848716343806868</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.08477725479289529</v>
+        <v>-0.07681421656817536</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.775180582597294</v>
+        <v>-3.572611334821614</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-8.860962261571469</v>
+        <v>-8.859538496526145</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.377453588789852</v>
+        <v>5.553142706025506</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.052043027448343</v>
+        <v>-0.3893043392349548</v>
       </c>
     </row>
     <row r="31">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04008152810308928</v>
+        <v>-0.03789173687765081</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.09498738868718468</v>
+        <v>-0.09402994786469461</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.04870840671894869</v>
+        <v>0.06247746957449703</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.01218313745500747</v>
+        <v>-0.004975866460974975</v>
       </c>
     </row>
     <row r="34">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.479750246649896</v>
+        <v>-4.304461658228876</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-8.50639627757095</v>
+        <v>-8.718620596210648</v>
       </c>
     </row>
     <row r="36">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.902939337438355</v>
+        <v>4.440417178889598</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.02972346522059634</v>
+        <v>-0.5764779024068303</v>
       </c>
     </row>
     <row r="37">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.04696859942967804</v>
+        <v>-0.0451201923691301</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.08915607011569734</v>
+        <v>-0.09226738372672058</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.04261509254792063</v>
+        <v>0.04911879495167976</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.0001964597471256285</v>
+        <v>-0.006762752567495281</v>
       </c>
     </row>
     <row r="40">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.90936828459307</v>
+        <v>-2.478551545861107</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.12833185806639</v>
+        <v>-6.302440501328093</v>
       </c>
     </row>
     <row r="42">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.482231367657077</v>
+        <v>6.175223906063215</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.941529310928742</v>
+        <v>1.860871000596778</v>
       </c>
     </row>
     <row r="43">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.01959362881734634</v>
+        <v>-0.02561088272359341</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.06381919572015746</v>
+        <v>-0.06525496043672724</v>
       </c>
     </row>
     <row r="45">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.07128431150368042</v>
+        <v>0.06721186532866526</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.02099252820905563</v>
+        <v>0.02019246393869672</v>
       </c>
     </row>
     <row r="46">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.5241390547137289</v>
+        <v>-0.5097035368154221</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-6.876064420199443</v>
+        <v>-6.743871627245543</v>
       </c>
     </row>
     <row r="48">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.560695547299728</v>
+        <v>4.515993858739453</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.950539689495624</v>
+        <v>-1.727041814972603</v>
       </c>
     </row>
     <row r="49">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.006072045636310137</v>
+        <v>-0.005821337372249446</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.07878146685247593</v>
+        <v>-0.07703264858733661</v>
       </c>
     </row>
     <row r="51">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.05400659777376259</v>
+        <v>0.05390745161271301</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.02207457419550031</v>
+        <v>-0.02050263967727257</v>
       </c>
     </row>
     <row r="52">
